--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC021576-C49A-4321-8232-3602053DCBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BFA1A-7081-4646-B54E-C53294A438F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="3675" windowWidth="17280" windowHeight="8880" xr2:uid="{945A756C-64EB-4F47-AC63-805CC3E96EF8}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{14F1490D-BA2D-4F34-9C48-3F11AB17B7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381D52B-57C5-4C75-88A6-E58959BFF0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4938E3E8-DC99-4915-AED0-214590074476}">
   <dimension ref="D10:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>3006773320</v>
+        <v>2481217.77</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD202D-5A6C-48D6-B4D5-FFD692480E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A80645-0EA3-4A62-8D5A-1E390A34C55E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB526CA3-3FF7-4B89-ADE5-3ABD6C3C10D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACD399-2195-41D7-A37E-41B5E31230E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A3442E26-2910-4577-8415-71CD668D6D9E}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{7A9C34D3-BB3E-499F-A788-B5A101C5B495}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -5259,7 +5259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC59E3-3F9A-4A29-9856-F16E93D9E05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB251CEA-7042-4C5B-94A5-2C9B9EF1DD0D}">
   <dimension ref="D9:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5451,7 +5451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487FD858-5055-4B6C-BEEB-BDB1C3CFB653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FA0CA0-17D0-46D1-8A6F-A9C8A4512C19}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5592,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD990C1-A5F6-48E2-9F2D-8BFA6633C94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C8B99-A5D9-4C07-A7E5-5923CBA38610}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5733,7 +5733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F71A6-C268-4F50-8EDB-23AF41622D61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CBC9F6-1547-4CF7-91FF-A10C10D59D45}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6623,7 +6623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E315E6-53A3-4FF0-BEE5-A1B9F46374F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D7A935-8484-41AF-AE20-B8B872282864}">
   <dimension ref="A1:Q459"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29589,7 +29589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AEE122-4CC9-476A-9144-CCE1BF6D6626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE7ABAD-C42C-4CBB-9375-7B0311412682}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29730,7 +29730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B22607-0507-48B8-8009-DD6B05476195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D68E842-5943-45F8-A320-8A1B71BA2C8D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894236B6-1877-4476-A8E8-6ECBE86CC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B8E574-670C-454F-935C-B2E8FB2854C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{E5136D3F-69BB-4E2B-927A-F04F7F609DFD}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{C7595FEA-8355-424A-A814-706981174A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -5322,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A639908A-52AD-4273-9292-759843DB2F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B3DEE5-0FD7-4E5C-87DC-B04DE9A97218}">
   <dimension ref="D9:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5355,8 +5355,12 @@
       <c r="D11" t="s">
         <v>1610</v>
       </c>
+      <c r="E11">
+        <f>F11+G11</f>
+        <v>2482467.77</v>
+      </c>
       <c r="G11">
-        <v>3006773320</v>
+        <v>2482467.77</v>
       </c>
       <c r="H11" t="s">
         <v>1611</v>
@@ -5366,6 +5370,10 @@
       <c r="D12" t="s">
         <v>1612</v>
       </c>
+      <c r="E12">
+        <f>F12+G12</f>
+        <v>0</v>
+      </c>
       <c r="H12" t="s">
         <v>1613</v>
       </c>
@@ -5374,6 +5382,10 @@
       <c r="D13" t="s">
         <v>1614</v>
       </c>
+      <c r="E13">
+        <f>F13+G13</f>
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
         <v>1615</v>
       </c>
@@ -5383,6 +5395,10 @@
         <v>1616</v>
       </c>
       <c r="E14">
+        <f>F14+G14</f>
+        <v>297235.46999999997</v>
+      </c>
+      <c r="F14">
         <v>297235.46999999997</v>
       </c>
       <c r="H14" t="s">
@@ -5394,6 +5410,10 @@
         <v>1618</v>
       </c>
       <c r="E15">
+        <f>F15+G15</f>
+        <v>278277.21999999997</v>
+      </c>
+      <c r="G15">
         <v>278277.21999999997</v>
       </c>
       <c r="H15" t="s">
@@ -5404,6 +5424,10 @@
       <c r="D16" t="s">
         <v>1620</v>
       </c>
+      <c r="E16">
+        <f>F16+G16</f>
+        <v>0</v>
+      </c>
       <c r="H16" t="s">
         <v>1621</v>
       </c>
@@ -5413,6 +5437,10 @@
         <v>1622</v>
       </c>
       <c r="E17">
+        <f>F17+G17</f>
+        <v>1952279.98</v>
+      </c>
+      <c r="G17">
         <v>1952279.98</v>
       </c>
       <c r="H17" t="s">
@@ -5423,6 +5451,10 @@
       <c r="D18" t="s">
         <v>1624</v>
       </c>
+      <c r="E18">
+        <f>F18+G18</f>
+        <v>0</v>
+      </c>
       <c r="H18" t="s">
         <v>1625</v>
       </c>
@@ -5432,6 +5464,10 @@
         <v>1626</v>
       </c>
       <c r="E19">
+        <f>F19+G19</f>
+        <v>19869.36</v>
+      </c>
+      <c r="G19">
         <v>19869.36</v>
       </c>
       <c r="H19" t="s">
@@ -5443,6 +5479,10 @@
         <v>1628</v>
       </c>
       <c r="E20">
+        <f>F20+G20</f>
+        <v>4850</v>
+      </c>
+      <c r="G20">
         <v>4850</v>
       </c>
       <c r="H20" t="s">
@@ -5454,6 +5494,10 @@
         <v>1630</v>
       </c>
       <c r="E21">
+        <f>F21+G21</f>
+        <v>524179.74</v>
+      </c>
+      <c r="G21">
         <v>524179.74</v>
       </c>
       <c r="H21" t="s">
@@ -5464,6 +5508,10 @@
       <c r="D22" t="s">
         <v>1632</v>
       </c>
+      <c r="E22">
+        <f>F22+G22</f>
+        <v>0</v>
+      </c>
       <c r="H22" t="s">
         <v>1633</v>
       </c>
@@ -5472,6 +5520,10 @@
       <c r="D23" t="s">
         <v>1634</v>
       </c>
+      <c r="E23">
+        <f>F23+G23</f>
+        <v>0</v>
+      </c>
       <c r="H23" t="s">
         <v>1635</v>
       </c>
@@ -5480,6 +5532,10 @@
       <c r="D24" t="s">
         <v>1636</v>
       </c>
+      <c r="E24">
+        <f>F24+G24</f>
+        <v>0</v>
+      </c>
       <c r="H24" t="s">
         <v>1637</v>
       </c>
@@ -5488,6 +5544,10 @@
       <c r="D25" t="s">
         <v>1638</v>
       </c>
+      <c r="E25">
+        <f>F25+G25</f>
+        <v>0</v>
+      </c>
       <c r="H25" t="s">
         <v>1639</v>
       </c>
@@ -5496,6 +5556,10 @@
       <c r="D26" t="s">
         <v>1640</v>
       </c>
+      <c r="E26">
+        <f>F26+G26</f>
+        <v>0</v>
+      </c>
       <c r="H26" t="s">
         <v>1641</v>
       </c>
@@ -5505,16 +5569,16 @@
         <v>1606</v>
       </c>
       <c r="E27">
-        <f>SUM(E11:E26)</f>
-        <v>3076691.7699999996</v>
+        <f>F27+G27</f>
+        <v>5559159.540000001</v>
       </c>
       <c r="F27">
         <f>SUM(F11:F26)</f>
-        <v>0</v>
+        <v>297235.46999999997</v>
       </c>
       <c r="G27">
         <f>SUM(G11:G26)</f>
-        <v>3006773320</v>
+        <v>5261924.0700000012</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2289D4F2-6316-41EA-8258-06ABEC1973D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D65428-093D-41A9-81B0-4FCB7AB81498}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6003,7 +6067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66953C33-BCF1-49EC-9CAA-E1F884B97CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F34A81-34F2-4AAB-A157-20CE4B584015}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6251,7 +6315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD265BB4-A883-4F0A-808F-019667363662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AE0869-1D63-4D22-9928-D8FCBE5809BB}">
   <dimension ref="A1:AP80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14845,7 +14909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C06E078-B4E4-4447-A6E9-B64B023D2052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F1FA6-430C-40D5-A4CB-30EB2E2C1891}">
   <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26261,7 +26325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED87AF-FBC4-48E8-A0F8-CB7F53042264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6E7075-FC99-4E8A-9EF5-B958240DC01D}">
   <dimension ref="A1:AP74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34957,7 +35021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AB00A4-4AD4-4D81-97B5-382CCF2D5175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9779D9AE-168C-40FE-8AEE-8279CFCAE9D4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F3E36-29F4-48C3-B4E3-D0E311CB6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A316C7DE-2997-4468-B538-4CA4659DE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EF7270-AE29-4A4A-92FC-F3FEDCC322EE}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB966CB-0DBF-44F4-AC78-ECA00C95C6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -5337,21 +5337,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB0AE0-6EC0-4F64-A718-0B101C1F18D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE22D7-E213-46E4-91F8-BEDD4977348A}">
   <dimension ref="D9:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
@@ -5380,7 +5371,7 @@
         <v>1615</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E27" si="0">F11+G11</f>
+        <f>F11+G11</f>
         <v>2482467.77</v>
       </c>
       <c r="G11">
@@ -5395,7 +5386,7 @@
         <v>1617</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>F12+G12</f>
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -5407,7 +5398,7 @@
         <v>1619</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>F13+G13</f>
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -5419,11 +5410,11 @@
         <v>1621</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>60634.22</v>
+        <f>F14+G14</f>
+        <v>58873.85</v>
       </c>
       <c r="F14">
-        <v>60634.22</v>
+        <v>58873.85</v>
       </c>
       <c r="H14" t="s">
         <v>1622</v>
@@ -5434,7 +5425,7 @@
         <v>1623</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>F15+G15</f>
         <v>278277.21999999997</v>
       </c>
       <c r="G15">
@@ -5449,7 +5440,7 @@
         <v>1625</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>F16+G16</f>
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -5461,8 +5452,11 @@
         <v>1627</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1952279.98</v>
+        <f>F17+G17</f>
+        <v>2249515.4500000002</v>
+      </c>
+      <c r="F17">
+        <v>297235.46999999997</v>
       </c>
       <c r="G17">
         <v>1952279.98</v>
@@ -5476,7 +5470,7 @@
         <v>1629</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>F18+G18</f>
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -5488,7 +5482,7 @@
         <v>1631</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>F19+G19</f>
         <v>19869.36</v>
       </c>
       <c r="G19">
@@ -5503,7 +5497,7 @@
         <v>1633</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>F20+G20</f>
         <v>4850</v>
       </c>
       <c r="G20">
@@ -5518,7 +5512,7 @@
         <v>1635</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>F21+G21</f>
         <v>524179.74</v>
       </c>
       <c r="G21">
@@ -5533,7 +5527,7 @@
         <v>1637</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>F22+G22</f>
         <v>0</v>
       </c>
       <c r="H22" t="s">
@@ -5545,7 +5539,7 @@
         <v>1639</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>F23+G23</f>
         <v>0</v>
       </c>
       <c r="H23" t="s">
@@ -5557,7 +5551,7 @@
         <v>1641</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>F24+G24</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
@@ -5569,7 +5563,7 @@
         <v>1643</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>F25+G25</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
@@ -5581,7 +5575,7 @@
         <v>1645</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>F26+G26</f>
         <v>0</v>
       </c>
       <c r="H26" t="s">
@@ -5593,12 +5587,12 @@
         <v>1611</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>5322558.290000001</v>
+        <f>F27+G27</f>
+        <v>5618033.3900000015</v>
       </c>
       <c r="F27">
         <f>SUM(F11:F26)</f>
-        <v>60634.22</v>
+        <v>356109.31999999995</v>
       </c>
       <c r="G27">
         <f>SUM(G11:G26)</f>
@@ -5611,7 +5605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED9A885-4D45-4E0D-B592-309F54EB0EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4133C5-0FBD-4DC6-AC71-4EA64018E08A}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6103,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBE3147-A11B-4AA3-9AD7-DFC06FE78933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC9AF6A-D3B8-44F3-A5D7-0AFD1DBF837A}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6357,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE295E6-511D-4A78-9C69-40B4DE446336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD07F9-490E-400C-9149-6F17A3B8A63B}">
   <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15191,7 +15185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A031F5B-55CB-4AF2-A2C3-34ED10FC8202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C05ECF-4E63-48D9-BACA-1A8AEB4A1CE0}">
   <dimension ref="A1:T228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27297,7 +27291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704ADC43-F49C-4577-A107-4B32068077D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1DBA3D-30B4-4984-AD0B-67B06139BD80}">
   <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36215,7 +36209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A7185-C03B-446F-B6F2-47D65E87A54D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB0F74-4ECB-414E-9D5B-7DAB4E7AF08B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A316C7DE-2997-4468-B538-4CA4659DE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB62EB-2E01-4748-8A61-A074CB95B5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB966CB-0DBF-44F4-AC78-ECA00C95C6D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -5337,7 +5337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE22D7-E213-46E4-91F8-BEDD4977348A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A2FFFF-75C1-4F63-ABA8-C986A7F430B1}">
   <dimension ref="D9:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5411,10 +5411,10 @@
       </c>
       <c r="E14">
         <f>F14+G14</f>
-        <v>58873.85</v>
+        <v>58634.22</v>
       </c>
       <c r="F14">
-        <v>58873.85</v>
+        <v>58634.22</v>
       </c>
       <c r="H14" t="s">
         <v>1622</v>
@@ -5588,11 +5588,11 @@
       </c>
       <c r="E27">
         <f>F27+G27</f>
-        <v>5618033.3900000015</v>
+        <v>5617793.7600000016</v>
       </c>
       <c r="F27">
         <f>SUM(F11:F26)</f>
-        <v>356109.31999999995</v>
+        <v>355869.68999999994</v>
       </c>
       <c r="G27">
         <f>SUM(G11:G26)</f>
@@ -5605,7 +5605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4133C5-0FBD-4DC6-AC71-4EA64018E08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F57D016-49CD-4B71-946E-9359DF40589C}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC9AF6A-D3B8-44F3-A5D7-0AFD1DBF837A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A904E6-E1D0-4779-891F-1196AA5635A4}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6351,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD07F9-490E-400C-9149-6F17A3B8A63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA11FB3F-31FD-4C43-A348-DC52C721AECA}">
   <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15185,7 +15185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C05ECF-4E63-48D9-BACA-1A8AEB4A1CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49597CF7-7D9B-4DB4-8A08-6FE79EBE12E6}">
   <dimension ref="A1:T228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27291,7 +27291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1DBA3D-30B4-4984-AD0B-67B06139BD80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E238426-4E79-4B98-9F02-2302A81EAC3D}">
   <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36209,7 +36209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB0F74-4ECB-414E-9D5B-7DAB4E7AF08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47730E32-0513-45B4-8B13-44A9ABE5D82D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
